--- a/excelFiles/Type.xlsx
+++ b/excelFiles/Type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECNU\J2EE\DemoWork\data-manage-system-backend\excelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\IdeaProjects\data-manage-system\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D6F954-F784-4E5B-90F7-D8F769DA1404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587F7DF-594D-4892-A7AB-A172E5833E5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="312" yWindow="312" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>name</t>
+    <t>类型名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +87,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -357,20 +365,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
